--- a/data/LGD-2006_macro_size_final.xlsx
+++ b/data/LGD-2006_macro_size_final.xlsx
@@ -74871,7 +74871,7 @@
         </is>
       </c>
       <c r="L1703">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1703">
         <v>0.1</v>

--- a/data/LGD-2006_macro_size_final.xlsx
+++ b/data/LGD-2006_macro_size_final.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L8">
@@ -796,7 +796,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L9">
@@ -845,7 +845,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L10">
@@ -894,7 +894,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L11">
@@ -943,7 +943,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L12">
@@ -992,7 +992,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L13">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L14">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L39">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L40">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L41">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L42">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L43">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L44">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L75">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L76">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L77">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L78">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L79">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L80">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L81">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L94">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L95">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L96">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L97">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L98">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L123">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L257">
@@ -16280,7 +16280,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L355">
@@ -16329,7 +16329,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L356">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L357">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L358">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L359">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L369">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L419">
@@ -19190,7 +19190,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L420">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L462">
@@ -21273,7 +21273,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L467">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L468">
@@ -21371,7 +21371,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L469">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L470">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L471">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L472">
@@ -21567,7 +21567,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L473">
@@ -21616,7 +21616,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L474">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L475">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L476">
@@ -21763,7 +21763,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L477">
@@ -22384,7 +22384,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L491">
@@ -22609,7 +22609,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L496">
@@ -22658,7 +22658,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L497">
@@ -22707,7 +22707,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L498">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L499">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L500">
@@ -22854,7 +22854,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L501">
@@ -22903,7 +22903,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L502">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L503">
@@ -23001,7 +23001,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L504">
@@ -23050,7 +23050,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L505">
@@ -23099,7 +23099,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L506">
@@ -23148,7 +23148,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L507">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L508">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L509">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L510">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L511">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L512">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L513">
@@ -23491,7 +23491,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L514">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L515">
@@ -23589,7 +23589,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L516">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L517">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L518">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L548">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L549">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L550">
@@ -26039,7 +26039,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L571">
@@ -26088,7 +26088,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L572">
@@ -26137,7 +26137,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L573">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L574">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L645">
@@ -30508,7 +30508,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L672">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L673">
@@ -30606,7 +30606,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L674">
@@ -30655,7 +30655,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L675">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L676">
@@ -30753,7 +30753,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L677">
@@ -30802,7 +30802,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L678">
@@ -30851,7 +30851,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L679">
@@ -30900,7 +30900,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L680">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L681">
@@ -30998,7 +30998,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L682">
@@ -31047,7 +31047,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L683">
@@ -31096,7 +31096,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L684">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L685">
@@ -31194,7 +31194,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L686">
@@ -31243,7 +31243,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L687">
@@ -31292,7 +31292,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L688">
@@ -31341,7 +31341,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L689">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L690">
@@ -31439,7 +31439,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L691">
@@ -36162,7 +36162,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L798">
@@ -36211,7 +36211,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L799">
@@ -36260,7 +36260,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L800">
@@ -36309,7 +36309,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L801">
@@ -36358,7 +36358,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L802">
@@ -38490,7 +38490,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L850">
@@ -38539,7 +38539,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L851">
@@ -38588,7 +38588,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L852">
@@ -38637,7 +38637,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L853">
@@ -38686,7 +38686,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L854">
@@ -38735,7 +38735,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L855">
@@ -38784,7 +38784,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L856">
@@ -38833,7 +38833,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L857">
@@ -38882,7 +38882,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L858">
@@ -38931,7 +38931,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L859">
@@ -38980,7 +38980,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L860">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L861">
@@ -39078,7 +39078,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L862">
@@ -39127,7 +39127,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L863">
@@ -39176,7 +39176,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L864">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L865">
@@ -39274,7 +39274,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L866">
@@ -39323,7 +39323,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L867">
@@ -39372,7 +39372,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L868">
@@ -43998,7 +43998,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L972">
@@ -44047,7 +44047,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L973">
@@ -44096,7 +44096,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L974">
@@ -44145,7 +44145,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L975">
@@ -44194,7 +44194,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L976">
@@ -64777,7 +64777,7 @@
       </c>
       <c r="J1448" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1448">
@@ -64821,7 +64821,7 @@
       </c>
       <c r="J1449" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1449">
@@ -64865,7 +64865,7 @@
       </c>
       <c r="J1450" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1450">
@@ -64909,7 +64909,7 @@
       </c>
       <c r="J1451" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1451">
@@ -64953,7 +64953,7 @@
       </c>
       <c r="J1452" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1452">
@@ -65699,7 +65699,7 @@
       </c>
       <c r="J1471" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1471">
@@ -65743,7 +65743,7 @@
       </c>
       <c r="J1472" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1472">
@@ -65787,7 +65787,7 @@
       </c>
       <c r="J1473" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1473">
@@ -68444,7 +68444,7 @@
       </c>
       <c r="J1541" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1541">
